--- a/input_csv/42_USB_Sticks/artikel.xlsx
+++ b/input_csv/42_USB_Sticks/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\42_USB_Sticks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9755D2-A0C1-49A1-9EA7-DEB9328C3768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34300781-E853-40BB-BCA6-D6544ADC490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20744322-D9D0-44BD-BB22-E0BBD22ECC13}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,14 +31,35 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>128GB Kingston DataTraveler Exodia M - USB 3.2 Gen 1</t>
+    <t>150 Mbit/s W-Lan USB Stick</t>
+  </si>
+  <si>
+    <t>256GB Kingston DataTraveler Exodia M - USB 3.2 Gen 1</t>
+  </si>
+  <si>
+    <t>300 Mbit/s W-Lan USB Stick</t>
+  </si>
+  <si>
+    <t>64GB Kingston DataTraveler Exodia</t>
+  </si>
+  <si>
+    <t>8GB USB STICK Speicherstick</t>
+  </si>
+  <si>
+    <t>USB Bluetooth + WLAN Stick</t>
+  </si>
+  <si>
+    <t>USB Bluetooth Stick</t>
+  </si>
+  <si>
+    <t>PNY Elite Steel USB-3.1-Stick – 128GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +190,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,8 +543,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3152009A-8747-4728-B891-387D0728F24C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +950,69 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>106003</v>
-      </c>
-      <c r="C2">
-        <v>740617326376</v>
+        <v>101054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>107018</v>
+      </c>
+      <c r="C3">
+        <v>740617326383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>101055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>106103</v>
+      </c>
+      <c r="C5">
+        <v>740617309829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>101247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>101113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>106949</v>
       </c>
     </row>
   </sheetData>

--- a/input_csv/42_USB_Sticks/artikel.xlsx
+++ b/input_csv/42_USB_Sticks/artikel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\42_USB_Sticks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34300781-E853-40BB-BCA6-D6544ADC490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA6CB0-B21F-42B9-9A82-3AB270E26A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20744322-D9D0-44BD-BB22-E0BBD22ECC13}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20744322-D9D0-44BD-BB22-E0BBD22ECC13}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamingstuhl" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_csv/42_USB_Sticks/artikel.xlsx
+++ b/input_csv/42_USB_Sticks/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\42_USB_Sticks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA6CB0-B21F-42B9-9A82-3AB270E26A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B115FD0-D07E-451F-89E6-582598B3EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20744322-D9D0-44BD-BB22-E0BBD22ECC13}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
